--- a/files/SNE_IAC_Database.xlsx
+++ b/files/SNE_IAC_Database.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC24"/>
+  <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2416,6 +2416,85 @@
       </c>
       <c r="AA24" t="n">
         <v>10885.19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UC</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3559</v>
+      </c>
+      <c r="E25" t="n">
+        <v>333249</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>465</v>
+      </c>
+      <c r="I25" t="n">
+        <v>300000</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Extrusion Machines</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8400</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>441331.96</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3639740</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>295135.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>10845.98</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-13362.18</v>
+      </c>
+      <c r="T25" t="n">
+        <v>207914.38</v>
+      </c>
+      <c r="U25" t="n">
+        <v>18992.18</v>
+      </c>
+      <c r="V25" t="n">
+        <v>20069.87</v>
+      </c>
+      <c r="W25" t="n">
+        <v>488.64</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD176"/>
+  <dimension ref="A1:AD188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13561,6 +13640,729 @@
       <c r="AD176" t="inlineStr">
         <is>
           <t>any</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>UC231701</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.3212</v>
+      </c>
+      <c r="G177" t="n">
+        <v>29188.8</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>90349.89999999999</v>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z177" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>29188.8</v>
+      </c>
+      <c r="AD177" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>UC231702</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.4231</v>
+      </c>
+      <c r="G178" t="n">
+        <v>75</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>2473.16</v>
+      </c>
+      <c r="K178" t="n">
+        <v>299.88</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O178" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z178" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD178" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>UC231703</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.4221</v>
+      </c>
+      <c r="G179" t="n">
+        <v>427.73</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>7080.99</v>
+      </c>
+      <c r="K179" t="n">
+        <v>822.67</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O179" t="n">
+        <v>299.88</v>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z179" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>427.73</v>
+      </c>
+      <c r="AD179" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>UC231704</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>4</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.4236</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>9990.51</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1211.34</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="O180" t="n">
+        <v>372.39</v>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z180" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>300</v>
+      </c>
+      <c r="AD180" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>UC231705</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.6231</v>
+      </c>
+      <c r="G181" t="n">
+        <v>50</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>43212.33</v>
+      </c>
+      <c r="K181" t="n">
+        <v>5239.65</v>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z181" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD181" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>UC231706</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.7444</v>
+      </c>
+      <c r="G182" t="n">
+        <v>540</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="K182" t="n">
+        <v>714.45</v>
+      </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z182" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>540</v>
+      </c>
+      <c r="AD182" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>UC231707</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.6231</v>
+      </c>
+      <c r="G183" t="n">
+        <v>17190.47</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>48971.87</v>
+      </c>
+      <c r="K183" t="n">
+        <v>5938.02</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>67.08</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1825.47</v>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z183" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>17190.47</v>
+      </c>
+      <c r="AD183" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>UC231708</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.2437</v>
+      </c>
+      <c r="G184" t="n">
+        <v>34608.5</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>-2271</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-275.37</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>-3.11</v>
+      </c>
+      <c r="O184" t="n">
+        <v>-84.65000000000001</v>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>161.57</v>
+      </c>
+      <c r="S184" t="n">
+        <v>1768.78</v>
+      </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z184" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>34608.5</v>
+      </c>
+      <c r="AD184" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>UC231709</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.212</v>
+      </c>
+      <c r="G185" t="n">
+        <v>188853.1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>-3131.94</v>
+      </c>
+      <c r="K185" t="n">
+        <v>-379.76</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="O185" t="n">
+        <v>-116.75</v>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="S185" t="n">
+        <v>31155.34</v>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z185" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>188853.1</v>
+      </c>
+      <c r="AD185" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>UC231710</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>10</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.7261</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1468.23</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>7020</v>
+      </c>
+      <c r="K186" t="n">
+        <v>851.53</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>552.6900000000001</v>
+      </c>
+      <c r="O186" t="n">
+        <v>6051.96</v>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z186" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>1468.23</v>
+      </c>
+      <c r="AD186" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>UC231711</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>11</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.9114</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2701940</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>2649734</v>
+      </c>
+      <c r="K187" t="n">
+        <v>321412.7</v>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z187" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>2701940</v>
+      </c>
+      <c r="AD187" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>UC231712</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>UC2317</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>12</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.8114</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>5410.6</v>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z188" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AD188" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>

--- a/files/SNE_IAC_Database.xlsx
+++ b/files/SNE_IAC_Database.xlsx
@@ -2579,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD188"/>
+  <dimension ref="A1:AD189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14710,6 +14710,12 @@
         <is>
           <t>none</t>
         </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="K189">
+        <f>SUM(K2:K188)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -15729,7 +15735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15750,22 +15756,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Average_number_of_recommendations_per_assessment</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Total_recommended_savings</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Total_plant_energy_costs</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_number_of_recommendations_per_assessment</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Total_recommended_savings_per_assessment</t>
         </is>
       </c>
     </row>
@@ -15775,6 +15771,13 @@
       </c>
       <c r="B2" t="n">
         <v>187</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="D2">
+        <f>SUM(K2:K188)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/files/SNE_IAC_Database.xlsx
+++ b/files/SNE_IAC_Database.xlsx
@@ -2627,7 +2627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD190"/>
+  <dimension ref="A1:AD192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14761,15 +14761,64 @@
       </c>
     </row>
     <row r="189">
+      <c r="G189" s="1" t="inlineStr">
+        <is>
+          <t>Total_Implementation_Cost</t>
+        </is>
+      </c>
       <c r="K189" s="1" t="inlineStr">
         <is>
-          <t>Total_Primary_recommended_savings</t>
+          <t>Total_recommended_savings</t>
+        </is>
+      </c>
+      <c r="O189" s="1" t="inlineStr">
+        <is>
+          <t>Total_recommended_savings</t>
+        </is>
+      </c>
+      <c r="S189" s="1" t="inlineStr">
+        <is>
+          <t>Total_recommended_savings</t>
+        </is>
+      </c>
+      <c r="W189" s="1" t="inlineStr">
+        <is>
+          <t>Total_recommended_savings</t>
         </is>
       </c>
     </row>
     <row r="190">
+      <c r="G190">
+        <f>SUM(G2:G188)</f>
+        <v/>
+      </c>
       <c r="K190">
         <f>SUM(K2:K188)</f>
+        <v/>
+      </c>
+      <c r="O190">
+        <f>SUM(O2:O188)</f>
+        <v/>
+      </c>
+      <c r="S190">
+        <f>SUM(S2:S188)</f>
+        <v/>
+      </c>
+      <c r="W190">
+        <f>SUM(W2:W188)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="W191" s="1" t="inlineStr">
+        <is>
+          <t>Average_Savings_From_Recommendation</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="W192">
+        <f>AVERAGE(K190,O190,S190,W190)</f>
         <v/>
       </c>
     </row>
